--- a/Backend/archivoDirectores.xlsx
+++ b/Backend/archivoDirectores.xlsx
@@ -95,15 +95,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,12 +165,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,10 +202,10 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
   </cols>
@@ -249,10 +255,10 @@
       <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>43074</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>42828</v>
       </c>
     </row>
@@ -275,10 +281,10 @@
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>31528</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>33345</v>
       </c>
     </row>
@@ -301,64 +307,65 @@
       <c r="F4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>43468</v>
       </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>18578</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>42343</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>42463</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>18578</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>38691</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>39541</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="2"/>
+      <c r="I11" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
